--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>九泰科鑫策略精选灵活配置混合C</t>
   </si>
   <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
     <t>35.36</t>
   </si>
   <si>
     <t>1.07</t>
+  </si>
+  <si>
+    <t>0.0097</t>
+  </si>
+  <si>
+    <t>0.0022</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>008342</t>
-  </si>
-  <si>
-    <t>008343</t>
-  </si>
-  <si>
-    <t>九泰科鑫策略精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>九泰科鑫策略精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>35.36</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>0.0097</t>
-  </si>
-  <si>
-    <t>0.0022</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4607</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1925</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>12.51</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -1371,13 +1466,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.51</v>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1547,667 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013393</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013394</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.02</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.51</v>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2288,1519 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5201</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D2" t="n">
-        <v>10.46</v>
+        <v>37.57</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>8.02</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>12.51</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,5720 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7189</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3810</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2537</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1901</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1704</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1400</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7155</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4829</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合A/B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>44.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方产业智选股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>44.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合A/B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>561150</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富国中证500ESG基准ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2141,7 +7872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2843,7 +8574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2937,7 +8668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3677,7 +9408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
+++ b/数据整理/stocks/A股/上证主板/600026-中远海能.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>37.57</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>10.46</v>
+        <v>37.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>8.02</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>12.51</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,2908 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013389</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6176</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5136</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014410</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011989</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>42.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011991</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011992</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安泓利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013701</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商稳锦混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安鑫泽稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009133</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005212</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安稳裕债券</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014411</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏时代领航两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012480</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012479</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009134</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安嘉利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>39.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013702</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商稳锦混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6296,7 +9215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7872,7 +10791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8574,7 +11493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8668,7 +11587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9408,7 +12327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
